--- a/Beat Snap Color.xlsx
+++ b/Beat Snap Color.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12750"/>
+    <workbookView xWindow="1965" yWindow="0" windowWidth="27870" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="176" formatCode="#\ ???/???"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C2:C49" si="0">B4/48</f>
+        <f t="shared" ref="C4:C49" si="0">B4/48</f>
         <v>6.25E-2</v>
       </c>
     </row>
